--- a/Sudoku/temp.xlsx
+++ b/Sudoku/temp.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,9 +20,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+  <si>
+    <t>2,3,4,5,7</t>
+  </si>
+  <si>
+    <t>1,3,7,8</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>2,3,7,8</t>
+  </si>
+  <si>
+    <t>1,2,3,9</t>
+  </si>
+  <si>
+    <t>2,3,7,9</t>
+  </si>
+  <si>
+    <t>1,7,8,9</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>1,4,7</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>1,6,7</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>3,5,7,9</t>
+  </si>
+  <si>
+    <t>6,7,9</t>
+  </si>
+  <si>
+    <t>no guess:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>One guess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,7</t>
+  </si>
+  <si>
+    <t>2,3,5,9</t>
+  </si>
+  <si>
+    <t>4,5,7</t>
+  </si>
+  <si>
+    <t>3,7,9</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,7,9</t>
+  </si>
+  <si>
+    <t>3,6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,6,9</t>
+  </si>
+  <si>
+    <t>2,3,6,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,6,7</t>
+  </si>
+  <si>
+    <t>2,3,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,7</t>
+  </si>
+  <si>
+    <t>3,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>1,3,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,7,8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,7,9</t>
+  </si>
+  <si>
+    <t>4,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5,6</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>4,5,9</t>
   </si>
 </sst>
 </file>
@@ -34,7 +377,15 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -43,8 +394,18 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="44"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -165,10 +532,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,197 +927,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" customWidth="1"/>
+    <col min="21" max="22" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1">
+    <row r="1" spans="1:24" ht="14" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3">
         <v>7</v>
       </c>
-      <c r="B1" s="2">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2">
-        <v>3</v>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I1" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <f>SUM(A1:I1)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J9" si="0">SUM(A2:I2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14" thickBot="1">
+        <v>18</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="55">
+        <v>7</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="55">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+    </row>
+    <row r="3" spans="1:24" ht="14" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="6">
         <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
+      <c r="L3" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>1</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="58">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+    </row>
+    <row r="4" spans="1:24" ht="14" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="58">
+        <v>5</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="58">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
         <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>4</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="55">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+    </row>
+    <row r="6" spans="1:24" ht="14" thickBot="1">
+      <c r="A6" s="7">
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="9">
         <v>3</v>
@@ -697,491 +1290,1693 @@
         <v>8</v>
       </c>
       <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="L6" s="59">
+        <v>2</v>
+      </c>
+      <c r="M6" s="53">
+        <v>3</v>
+      </c>
+      <c r="N6" s="53">
+        <v>6</v>
+      </c>
+      <c r="O6" s="59">
+        <v>8</v>
+      </c>
+      <c r="P6" s="53">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="58">
+        <v>9</v>
+      </c>
+      <c r="R6" s="53">
+        <v>4</v>
+      </c>
+      <c r="S6" s="53">
+        <v>1</v>
+      </c>
+      <c r="T6" s="58">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>45</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+    </row>
+    <row r="7" spans="1:24" ht="14" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>7</v>
-      </c>
       <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6">
         <v>4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="60">
+        <v>5</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>3</v>
+      </c>
+      <c r="R7" s="62">
+        <v>8</v>
+      </c>
+      <c r="S7" s="62">
+        <v>2</v>
+      </c>
+      <c r="T7" s="61">
+        <v>9</v>
+      </c>
+      <c r="U7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
         <v>8</v>
       </c>
-      <c r="G8" s="5">
-        <v>6</v>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I8" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" thickBot="1">
+        <v>14</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>2</v>
+      </c>
+      <c r="R8" s="53">
+        <v>1</v>
+      </c>
+      <c r="S8" s="53">
+        <v>8</v>
+      </c>
+      <c r="T8" s="58">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>15</v>
+      </c>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="1:24" ht="14" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="I9" s="9">
         <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>8</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="58">
+        <v>8</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="58">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+    </row>
+    <row r="10" spans="1:24" ht="14" thickBot="1">
       <c r="A10">
         <f>SUM(A1:A9)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:I10" si="1">SUM(B1:B9)</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" thickBot="1"/>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="L10" s="38">
+        <v>4</v>
+      </c>
+      <c r="M10" s="62">
+        <v>8</v>
+      </c>
+      <c r="N10" s="62">
+        <v>1</v>
+      </c>
+      <c r="O10" s="60">
+        <v>5</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>6</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="62">
+        <v>3</v>
+      </c>
+      <c r="T10" s="61">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>45</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>45</v>
+      </c>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+    </row>
+    <row r="13" spans="1:24" ht="14" thickBot="1">
+      <c r="L13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="L14" s="79">
+        <v>3</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="65">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>7</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="T14" s="66">
+        <v>1</v>
+      </c>
+      <c r="U14" s="67">
+        <v>16</v>
+      </c>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="L15" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="67">
         <v>9</v>
       </c>
-      <c r="C17" s="2">
+      <c r="N15" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>1</v>
+      </c>
+      <c r="R15" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="70">
+        <v>8</v>
+      </c>
+      <c r="U15" s="67">
+        <v>18</v>
+      </c>
+      <c r="V15" s="52"/>
+    </row>
+    <row r="16" spans="1:24" ht="14" thickBot="1">
+      <c r="L16" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="P16" s="67">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="70">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="R16" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="70">
         <v>6</v>
+      </c>
+      <c r="U16" s="67">
+        <v>15</v>
+      </c>
+      <c r="V16" s="52"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="25">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26">
+        <v>7</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
       </c>
       <c r="J17">
         <f>SUM(A17:I17)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="65">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="Q17" s="71">
+        <v>4</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="66">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>0</v>
+      <c r="U17" s="67">
+        <v>9</v>
+      </c>
+      <c r="V17" s="52"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="19">
+        <v>8</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:J25" si="2">SUM(A18:I18)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14" thickBot="1">
+        <v>18</v>
+      </c>
+      <c r="L18" s="72">
+        <v>2</v>
+      </c>
+      <c r="M18" s="67">
+        <v>3</v>
+      </c>
+      <c r="N18" s="67">
+        <v>6</v>
+      </c>
+      <c r="O18" s="72">
+        <v>8</v>
+      </c>
+      <c r="P18" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>9</v>
+      </c>
+      <c r="R18" s="67">
+        <v>4</v>
+      </c>
+      <c r="S18" s="67">
+        <v>1</v>
+      </c>
+      <c r="T18" s="70">
+        <v>7</v>
+      </c>
+      <c r="U18" s="67">
+        <v>45</v>
+      </c>
+      <c r="V18" s="52"/>
+    </row>
+    <row r="19" spans="1:22" ht="14" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6">
+        <v>66</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="F19" s="19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="19">
         <v>6</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>2</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="L19" s="73">
+        <v>5</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="76">
         <v>3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="R19" s="77">
+        <v>8</v>
+      </c>
+      <c r="S19" s="77">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
-        <v>4</v>
+      <c r="T19" s="76">
+        <v>9</v>
+      </c>
+      <c r="U19" s="67">
+        <v>27</v>
+      </c>
+      <c r="V19" s="52"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="26">
+        <v>3</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="70">
+        <v>2</v>
+      </c>
+      <c r="R20" s="67">
+        <v>1</v>
+      </c>
+      <c r="S20" s="67">
+        <v>8</v>
+      </c>
+      <c r="T20" s="70">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="U20" s="67">
+        <v>15</v>
+      </c>
+      <c r="V20" s="52"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="17">
+        <v>2</v>
+      </c>
+      <c r="B21" s="18">
         <v>3</v>
       </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="18">
         <v>6</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>0</v>
+      <c r="D21" s="17">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19">
+        <v>9</v>
+      </c>
+      <c r="G21" s="18">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>7</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L21" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="69" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" thickBot="1">
-      <c r="A22" s="12" t="s">
-        <v>0</v>
+      <c r="O21" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="70">
+        <v>8</v>
+      </c>
+      <c r="R21" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="70">
+        <v>5</v>
+      </c>
+      <c r="U21" s="67">
+        <v>14</v>
+      </c>
+      <c r="V21" s="52"/>
+    </row>
+    <row r="22" spans="1:22" ht="14" thickBot="1">
+      <c r="A22" s="15">
+        <v>5</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7">
+        <v>64</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="27">
+        <v>3</v>
+      </c>
+      <c r="G22" s="23">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23">
         <v>2</v>
       </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3</v>
-      </c>
-      <c r="G22" s="8">
-        <v>8</v>
-      </c>
-      <c r="H22" s="8">
-        <v>6</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>0</v>
+      <c r="I22" s="27">
+        <v>9</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
+        <v>27</v>
+      </c>
+      <c r="L22" s="75">
+        <v>4</v>
+      </c>
+      <c r="M22" s="77">
+        <v>8</v>
+      </c>
+      <c r="N22" s="77">
+        <v>1</v>
+      </c>
+      <c r="O22" s="73">
+        <v>5</v>
+      </c>
+      <c r="P22" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="78">
+        <v>6</v>
+      </c>
+      <c r="R22" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="77">
+        <v>3</v>
+      </c>
+      <c r="T22" s="76">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6">
-        <v>7</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="U22" s="67">
+        <v>25</v>
+      </c>
+      <c r="V22" s="52"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>8</v>
+      </c>
+      <c r="I23" s="19">
         <v>4</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>3</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
+        <v>15</v>
+      </c>
+      <c r="L23" s="67">
         <v>7</v>
+      </c>
+      <c r="M23" s="67">
+        <v>20</v>
+      </c>
+      <c r="N23" s="67">
+        <v>7</v>
+      </c>
+      <c r="O23" s="67">
+        <v>13</v>
+      </c>
+      <c r="P23" s="67">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>45</v>
+      </c>
+      <c r="R23" s="67">
+        <v>13</v>
+      </c>
+      <c r="S23" s="67">
+        <v>14</v>
+      </c>
+      <c r="T23" s="67">
+        <v>45</v>
+      </c>
+      <c r="U23" s="67"/>
+      <c r="V23" s="52"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>8</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="19">
+        <v>5</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14" thickBot="1">
-      <c r="A25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="8">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
+        <v>14</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+    </row>
+    <row r="25" spans="1:22" ht="14" thickBot="1">
+      <c r="A25" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="23">
+        <v>8</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25" s="32">
+        <v>5</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="8">
-        <v>9</v>
-      </c>
-      <c r="F25" s="9">
-        <v>4</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="I25" s="27">
         <v>2</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>8</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <f>SUM(A17:A25)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="3">SUM(B17:B25)</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26" si="4">SUM(C17:C25)</f>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26" si="5">SUM(D17:D25)</f>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26" si="6">SUM(E17:E25)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <f t="shared" ref="F26" si="7">SUM(F17:F25)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="8">SUM(G17:G25)</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26" si="9">SUM(H17:H25)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26" si="10">SUM(I17:I25)</f>
+        <v>45</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+    </row>
+    <row r="28" spans="1:22" ht="14" thickBot="1">
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="46">
+        <v>8</v>
+      </c>
+      <c r="F29" s="41">
+        <v>7</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="41">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>SUM(A29:I29)</f>
+        <v>16</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="34">
+        <v>9</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="42">
+        <v>1</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="42">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J37" si="11">SUM(A30:I30)</f>
+        <v>18</v>
+      </c>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+    </row>
+    <row r="31" spans="1:22" ht="14" thickBot="1">
+      <c r="A31" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="43">
+        <v>4</v>
+      </c>
+      <c r="F31" s="42">
+        <v>5</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="42">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="46">
+        <v>2</v>
+      </c>
+      <c r="F32" s="47">
+        <v>4</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="41">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="48">
+        <v>2</v>
+      </c>
+      <c r="B33" s="43">
+        <v>3</v>
+      </c>
+      <c r="C33" s="43">
+        <v>6</v>
+      </c>
+      <c r="D33" s="48">
+        <v>8</v>
+      </c>
+      <c r="E33" s="43">
+        <v>5</v>
+      </c>
+      <c r="F33" s="42">
+        <v>9</v>
+      </c>
+      <c r="G33" s="43">
+        <v>4</v>
+      </c>
+      <c r="H33" s="43">
+        <v>1</v>
+      </c>
+      <c r="I33" s="42">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+    </row>
+    <row r="34" spans="1:22" ht="14" thickBot="1">
+      <c r="A34" s="36">
+        <v>5</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="39">
+        <v>3</v>
+      </c>
+      <c r="G34" s="40">
+        <v>8</v>
+      </c>
+      <c r="H34" s="40">
+        <v>2</v>
+      </c>
+      <c r="I34" s="39">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="42">
+        <v>2</v>
+      </c>
+      <c r="G35" s="43">
+        <v>1</v>
+      </c>
+      <c r="H35" s="43">
+        <v>8</v>
+      </c>
+      <c r="I35" s="42">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>30</v>
       </c>
+      <c r="E36" s="43">
+        <v>1</v>
+      </c>
+      <c r="F36" s="42">
+        <v>8</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="42">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+    </row>
+    <row r="37" spans="1:22" ht="14" thickBot="1">
+      <c r="A37" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="40">
+        <v>8</v>
+      </c>
+      <c r="C37" s="40">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36">
+        <v>5</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="50">
+        <v>6</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="40">
+        <v>3</v>
+      </c>
+      <c r="I37" s="39">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <f>SUM(A29:A37)</f>
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="12">SUM(B29:B37)</f>
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="13">SUM(C29:C37)</f>
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="14">SUM(D29:D37)</f>
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="15">SUM(E29:E37)</f>
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="16">SUM(F29:F37)</f>
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="17">SUM(G29:G37)</f>
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="18">SUM(H29:H37)</f>
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="19">SUM(I29:I37)</f>
+        <v>45</v>
+      </c>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="9" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Sudoku/temp.xlsx
+++ b/Sudoku/temp.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="14320" yWindow="-60" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
   <si>
     <t>2,3,4,5,7</t>
   </si>
@@ -127,6 +128,280 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 4 6 </t>
+  </si>
+  <si>
+    <t>(0,1,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 4 5 6 </t>
+  </si>
+  <si>
+    <t>(0,2,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 4 5 </t>
+  </si>
+  <si>
+    <t>(0,3,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 6 9 </t>
+  </si>
+  <si>
+    <t>(0,6,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 5 9 </t>
+  </si>
+  <si>
+    <t>(0,7,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 5 9 </t>
+  </si>
+  <si>
+    <t>(1,0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 4 6 7 </t>
+  </si>
+  <si>
+    <t>(1,2,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 4 5 7 </t>
+  </si>
+  <si>
+    <t>(1,3,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 6 </t>
+  </si>
+  <si>
+    <t>(1,4,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 6 </t>
+  </si>
+  <si>
+    <t>(1,6,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 5 7 </t>
+  </si>
+  <si>
+    <t>(1,7,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 5 7 </t>
+  </si>
+  <si>
+    <t>(2,0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3 7 8 </t>
+  </si>
+  <si>
+    <t>(2,1,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 7 </t>
+  </si>
+  <si>
+    <t>(2,2,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 7 8 </t>
+  </si>
+  <si>
+    <t>(2,3,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 9 </t>
+  </si>
+  <si>
+    <t>(2,6,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 7 9 </t>
+  </si>
+  <si>
+    <t>(2,7,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 9 </t>
+  </si>
+  <si>
+    <t>(3,0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 4 7 8 9 </t>
+  </si>
+  <si>
+    <t>(3,1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 4 7 </t>
+  </si>
+  <si>
+    <t>(3,2,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 7 8 9 </t>
+  </si>
+  <si>
+    <t>(3,3,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 4 6 7 </t>
+  </si>
+  <si>
+    <t>(3,5,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 6 </t>
+  </si>
+  <si>
+    <t>(3,6,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 6 </t>
+  </si>
+  <si>
+    <t>(3,7,7)</t>
+  </si>
+  <si>
+    <t>(5,1,1)</t>
+  </si>
+  <si>
+    <t>(5,2,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 7 </t>
+  </si>
+  <si>
+    <t>(5,3,4)</t>
+  </si>
+  <si>
+    <t>(5,4,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 7 </t>
+  </si>
+  <si>
+    <t>(6,0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 6 7 9 </t>
+  </si>
+  <si>
+    <t>(6,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 6 7 </t>
+  </si>
+  <si>
+    <t>(6,2,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 5 7 9 </t>
+  </si>
+  <si>
+    <t>(6,3,5)</t>
+  </si>
+  <si>
+    <t>(6,4,5)</t>
+  </si>
+  <si>
+    <t>(7,0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 4 6 7 9 </t>
+  </si>
+  <si>
+    <t>(7,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 4 6 7 </t>
+  </si>
+  <si>
+    <t>(7,2,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3 4 7 9 </t>
+  </si>
+  <si>
+    <t>(7,3,5)</t>
+  </si>
+  <si>
+    <t>(7,6,8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 7 9 </t>
+  </si>
+  <si>
+    <t>(7,7,8)</t>
+  </si>
+  <si>
+    <t>(8,0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 6 7 9 </t>
+  </si>
+  <si>
+    <t>(8,4,5)</t>
+  </si>
+  <si>
+    <t>(8,5,5)</t>
+  </si>
+  <si>
+    <t>(8,6,8)</t>
+  </si>
+  <si>
+    <t>2,4,5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3,4,7,9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,14 +533,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>1,3,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4,6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -274,45 +541,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,4,6,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>6,7</t>
   </si>
   <si>
-    <t>6,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5,6</t>
   </si>
   <si>
-    <t>5,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7,9</t>
-  </si>
-  <si>
-    <t>7,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,7,8,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,6,7</t>
@@ -377,7 +612,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -392,11 +627,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -517,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -528,59 +758,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -927,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -952,21 +1168,22 @@
     <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.28515625" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="22" width="3" customWidth="1"/>
+    <col min="21" max="24" width="3" customWidth="1"/>
+    <col min="25" max="33" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14" thickBot="1">
+    <row r="1" spans="1:33" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E1" s="2">
         <v>8</v>
@@ -975,10 +1192,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I1" s="3">
         <v>1</v>
@@ -987,46 +1204,73 @@
         <f>SUM(A1:I1)</f>
         <v>16</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="34">
+        <v>5</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>8</v>
+      </c>
+      <c r="AD1">
+        <v>7</v>
+      </c>
+      <c r="AE1">
+        <v>9</v>
+      </c>
+      <c r="AF1">
+        <v>4</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I2" s="6">
         <v>8</v>
@@ -1035,52 +1279,77 @@
         <f t="shared" ref="J2:J9" si="0">SUM(A2:I2)</f>
         <v>18</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="54">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="55">
+      <c r="M2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="40">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="41">
         <v>7</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" s="55">
+      <c r="R2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="41">
         <v>1</v>
       </c>
       <c r="U2">
         <v>16</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-    </row>
-    <row r="3" spans="1:24" ht="14" thickBot="1">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="14" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -1089,10 +1358,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I3" s="6">
         <v>6</v>
@@ -1101,64 +1370,89 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="M3">
         <v>9</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="58">
-        <v>1</v>
-      </c>
-      <c r="R3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="58">
+      <c r="O3" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>1</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="44">
         <v>8</v>
       </c>
       <c r="U3">
         <v>18</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-    </row>
-    <row r="4" spans="1:24" ht="14" thickBot="1">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>9</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>7</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="14" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1167,41 +1461,66 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="57" t="s">
+      <c r="L4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="39">
         <v>4</v>
       </c>
-      <c r="Q4" s="58">
-        <v>5</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="58">
+      <c r="Q4" s="44">
+        <v>5</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="44">
         <v>6</v>
       </c>
       <c r="U4">
         <v>15</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1233,55 +1552,80 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="54">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="47">
+      <c r="P5" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="25">
         <v>4</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="55">
+      <c r="R5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="T5" s="41">
         <v>3</v>
       </c>
       <c r="U5">
         <v>9</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:24" ht="14" thickBot="1">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>9</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="14" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F6" s="9">
         <v>3</v>
@@ -1299,55 +1643,80 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L6" s="59">
-        <v>2</v>
-      </c>
-      <c r="M6" s="53">
+      <c r="L6" s="45">
+        <v>2</v>
+      </c>
+      <c r="M6" s="39">
         <v>3</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="39">
         <v>6</v>
       </c>
-      <c r="O6" s="59">
-        <v>8</v>
-      </c>
-      <c r="P6" s="53">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="58">
+      <c r="O6" s="45">
+        <v>8</v>
+      </c>
+      <c r="P6" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="44">
         <v>9</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="39">
         <v>4</v>
       </c>
-      <c r="S6" s="53">
-        <v>1</v>
-      </c>
-      <c r="T6" s="58">
+      <c r="S6" s="39">
+        <v>1</v>
+      </c>
+      <c r="T6" s="44">
         <v>7</v>
       </c>
       <c r="U6">
         <v>45</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-    </row>
-    <row r="7" spans="1:24" ht="14" thickBot="1">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="14" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1365,52 +1734,77 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L7" s="60">
-        <v>5</v>
-      </c>
-      <c r="M7" s="37" t="s">
+      <c r="L7" s="46">
+        <v>5</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="61">
+      <c r="P7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="47">
         <v>3</v>
       </c>
-      <c r="R7" s="62">
-        <v>8</v>
-      </c>
-      <c r="S7" s="62">
-        <v>2</v>
-      </c>
-      <c r="T7" s="61">
+      <c r="R7" s="48">
+        <v>8</v>
+      </c>
+      <c r="S7" s="48">
+        <v>2</v>
+      </c>
+      <c r="T7" s="47">
         <v>9</v>
       </c>
       <c r="U7">
         <v>27</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="34">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>8</v>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1419,10 +1813,10 @@
         <v>8</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I8" s="6">
         <v>5</v>
@@ -1431,43 +1825,68 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="56" t="s">
+      <c r="L8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="58">
-        <v>2</v>
-      </c>
-      <c r="R8" s="53">
-        <v>1</v>
-      </c>
-      <c r="S8" s="53">
-        <v>8</v>
-      </c>
-      <c r="T8" s="58">
+      <c r="O8" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>2</v>
+      </c>
+      <c r="R8" s="39">
+        <v>1</v>
+      </c>
+      <c r="S8" s="39">
+        <v>8</v>
+      </c>
+      <c r="T8" s="44">
         <v>4</v>
       </c>
       <c r="U8">
         <v>15</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="1:24" ht="14" thickBot="1">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="34">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>9</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="14" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B9" s="8">
         <v>8</v>
@@ -1479,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H9" s="8">
         <v>3</v>
@@ -1497,41 +1916,66 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="58">
-        <v>8</v>
-      </c>
-      <c r="R9" s="57" t="s">
+      <c r="O9" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>8</v>
+      </c>
+      <c r="R9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="57" t="s">
+      <c r="S9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="44">
         <v>5</v>
       </c>
       <c r="U9">
         <v>14</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-    </row>
-    <row r="10" spans="1:24" ht="14" thickBot="1">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="14" thickBot="1">
       <c r="A10">
         <f>SUM(A1:A9)</f>
         <v>7</v>
@@ -1568,41 +2012,39 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="16">
         <v>4</v>
       </c>
-      <c r="M10" s="62">
-        <v>8</v>
-      </c>
-      <c r="N10" s="62">
-        <v>1</v>
-      </c>
-      <c r="O10" s="60">
-        <v>5</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="50">
+      <c r="M10" s="48">
+        <v>8</v>
+      </c>
+      <c r="N10" s="48">
+        <v>1</v>
+      </c>
+      <c r="O10" s="46">
+        <v>5</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="28">
         <v>6</v>
       </c>
-      <c r="R10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="62">
+      <c r="R10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" s="48">
         <v>3</v>
       </c>
-      <c r="T10" s="61">
+      <c r="T10" s="47">
         <v>2</v>
       </c>
       <c r="U10">
         <v>25</v>
       </c>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="X10" s="34"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="L11">
         <v>7</v>
       </c>
@@ -1630,1149 +2072,1199 @@
       <c r="T11">
         <v>45</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-    </row>
-    <row r="13" spans="1:24" ht="14" thickBot="1">
-      <c r="L13" s="52" t="s">
+      <c r="X11" s="34"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:33" ht="14" thickBot="1">
+      <c r="L13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="L14" s="79">
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="L14" s="65">
         <v>3</v>
       </c>
-      <c r="M14" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="64" t="s">
+      <c r="M14" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="65">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="66">
+      <c r="P14" s="51">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="52">
         <v>7</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="T14" s="66">
-        <v>1</v>
-      </c>
-      <c r="U14" s="67">
+      <c r="S14" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="52">
+        <v>1</v>
+      </c>
+      <c r="U14" s="53">
         <v>16</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="L15" s="68" t="s">
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="L15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="53">
         <v>9</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="70">
-        <v>1</v>
-      </c>
-      <c r="R15" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="70">
-        <v>8</v>
-      </c>
-      <c r="U15" s="67">
+      <c r="O15" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>1</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="56">
+        <v>8</v>
+      </c>
+      <c r="U15" s="53">
         <v>18</v>
       </c>
-      <c r="V15" s="52"/>
-    </row>
-    <row r="16" spans="1:24" ht="14" thickBot="1">
-      <c r="L16" s="68" t="s">
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="34"/>
+    </row>
+    <row r="16" spans="1:33" ht="14" thickBot="1">
+      <c r="L16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="69" t="s">
+      <c r="M16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="67">
+      <c r="P16" s="53">
         <v>4</v>
       </c>
-      <c r="Q16" s="70">
-        <v>5</v>
-      </c>
-      <c r="R16" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="70">
+      <c r="Q16" s="56">
+        <v>5</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="56">
         <v>6</v>
       </c>
-      <c r="U16" s="67">
+      <c r="U16" s="53">
         <v>15</v>
       </c>
-      <c r="V16" s="52"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="25">
-        <v>8</v>
-      </c>
-      <c r="F17" s="26">
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="34"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="30">
+        <v>6</v>
+      </c>
+      <c r="B17" s="31">
+        <v>5</v>
+      </c>
+      <c r="C17" s="31">
+        <v>3</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2</v>
+      </c>
+      <c r="E17" s="31">
+        <v>8</v>
+      </c>
+      <c r="F17" s="32">
         <v>7</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="26">
+      <c r="G17" s="31">
+        <v>9</v>
+      </c>
+      <c r="H17" s="31">
+        <v>4</v>
+      </c>
+      <c r="I17" s="32">
         <v>1</v>
       </c>
       <c r="J17">
         <f>SUM(A17:I17)</f>
-        <v>16</v>
-      </c>
-      <c r="L17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>4</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="52">
+        <v>3</v>
+      </c>
+      <c r="U17" s="53">
+        <v>9</v>
+      </c>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="34"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="33">
+        <v>7</v>
+      </c>
+      <c r="B18" s="34">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34">
+        <v>4</v>
+      </c>
+      <c r="D18" s="33">
         <v>6</v>
       </c>
-      <c r="M17" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="65">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="71">
-        <v>4</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="66">
+      <c r="E18" s="34">
         <v>3</v>
       </c>
-      <c r="U17" s="67">
-        <v>9</v>
-      </c>
-      <c r="V17" s="52"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="18">
-        <v>9</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="F18" s="35">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34">
+        <v>2</v>
+      </c>
+      <c r="H18" s="34">
+        <v>5</v>
+      </c>
+      <c r="I18" s="35">
         <v>8</v>
       </c>
       <c r="J18">
         <f t="shared" ref="J18:J25" si="2">SUM(A18:I18)</f>
-        <v>18</v>
-      </c>
-      <c r="L18" s="72">
-        <v>2</v>
-      </c>
-      <c r="M18" s="67">
+        <v>45</v>
+      </c>
+      <c r="L18" s="58">
+        <v>2</v>
+      </c>
+      <c r="M18" s="53">
         <v>3</v>
       </c>
-      <c r="N18" s="67">
+      <c r="N18" s="53">
         <v>6</v>
       </c>
-      <c r="O18" s="72">
-        <v>8</v>
-      </c>
-      <c r="P18" s="67">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="70">
+      <c r="O18" s="58">
+        <v>8</v>
+      </c>
+      <c r="P18" s="53">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="56">
         <v>9</v>
       </c>
-      <c r="R18" s="67">
+      <c r="R18" s="53">
         <v>4</v>
       </c>
-      <c r="S18" s="67">
-        <v>1</v>
-      </c>
-      <c r="T18" s="70">
+      <c r="S18" s="53">
+        <v>1</v>
+      </c>
+      <c r="T18" s="56">
         <v>7</v>
       </c>
-      <c r="U18" s="67">
+      <c r="U18" s="53">
         <v>45</v>
       </c>
-      <c r="V18" s="52"/>
-    </row>
-    <row r="19" spans="1:22" ht="14" thickBot="1">
-      <c r="A19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="34"/>
+    </row>
+    <row r="19" spans="1:24" ht="14" thickBot="1">
+      <c r="A19" s="33">
+        <v>1</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>8</v>
+      </c>
+      <c r="D19" s="33">
+        <v>9</v>
+      </c>
+      <c r="E19" s="34">
         <v>4</v>
       </c>
-      <c r="F19" s="19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="F19" s="35">
+        <v>5</v>
+      </c>
+      <c r="G19" s="34">
+        <v>3</v>
+      </c>
+      <c r="H19" s="34">
+        <v>7</v>
+      </c>
+      <c r="I19" s="35">
         <v>6</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="L19" s="73">
-        <v>5</v>
-      </c>
-      <c r="M19" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="59">
+        <v>5</v>
+      </c>
+      <c r="M19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="74" t="s">
+      <c r="N19" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="76">
+      <c r="P19" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="62">
         <v>3</v>
       </c>
-      <c r="R19" s="77">
-        <v>8</v>
-      </c>
-      <c r="S19" s="77">
-        <v>2</v>
-      </c>
-      <c r="T19" s="76">
+      <c r="R19" s="63">
+        <v>8</v>
+      </c>
+      <c r="S19" s="63">
+        <v>2</v>
+      </c>
+      <c r="T19" s="62">
         <v>9</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="53">
         <v>27</v>
       </c>
-      <c r="V19" s="52"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="25">
-        <v>2</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="26">
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="34"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="30">
+        <v>8</v>
+      </c>
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30">
+        <v>7</v>
+      </c>
+      <c r="E20" s="31">
+        <v>2</v>
+      </c>
+      <c r="F20" s="32">
+        <v>4</v>
+      </c>
+      <c r="G20" s="31">
+        <v>5</v>
+      </c>
+      <c r="H20" s="31">
+        <v>6</v>
+      </c>
+      <c r="I20" s="32">
         <v>3</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="69" t="s">
+      <c r="M20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="69" t="s">
+      <c r="N20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="70">
-        <v>2</v>
-      </c>
-      <c r="R20" s="67">
-        <v>1</v>
-      </c>
-      <c r="S20" s="67">
-        <v>8</v>
-      </c>
-      <c r="T20" s="70">
+      <c r="O20" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>2</v>
+      </c>
+      <c r="R20" s="53">
+        <v>1</v>
+      </c>
+      <c r="S20" s="53">
+        <v>8</v>
+      </c>
+      <c r="T20" s="56">
         <v>4</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="53">
         <v>15</v>
       </c>
-      <c r="V20" s="52"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="17">
-        <v>2</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="34"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="33">
+        <v>2</v>
+      </c>
+      <c r="B21" s="34">
         <v>3</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="34">
         <v>6</v>
       </c>
-      <c r="D21" s="17">
-        <v>8</v>
-      </c>
-      <c r="E21" s="18">
-        <v>5</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="D21" s="33">
+        <v>8</v>
+      </c>
+      <c r="E21" s="34">
+        <v>5</v>
+      </c>
+      <c r="F21" s="35">
         <v>9</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="34">
         <v>4</v>
       </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="H21" s="34">
+        <v>1</v>
+      </c>
+      <c r="I21" s="35">
         <v>7</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="69" t="s">
+      <c r="M21" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="70">
-        <v>8</v>
-      </c>
-      <c r="R21" s="69" t="s">
+      <c r="O21" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>8</v>
+      </c>
+      <c r="R21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="69" t="s">
+      <c r="S21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T21" s="70">
-        <v>5</v>
-      </c>
-      <c r="U21" s="67">
+      <c r="T21" s="56">
+        <v>5</v>
+      </c>
+      <c r="U21" s="53">
         <v>14</v>
       </c>
-      <c r="V21" s="52"/>
-    </row>
-    <row r="22" spans="1:22" ht="14" thickBot="1">
-      <c r="A22" s="15">
-        <v>5</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="34"/>
+    </row>
+    <row r="22" spans="1:24" ht="14" thickBot="1">
+      <c r="A22" s="36">
+        <v>5</v>
+      </c>
+      <c r="B22" s="37">
+        <v>4</v>
+      </c>
+      <c r="C22" s="37">
+        <v>7</v>
+      </c>
+      <c r="D22" s="36">
+        <v>1</v>
+      </c>
+      <c r="E22" s="37">
+        <v>6</v>
+      </c>
+      <c r="F22" s="38">
         <v>3</v>
       </c>
-      <c r="G22" s="23">
-        <v>8</v>
-      </c>
-      <c r="H22" s="23">
-        <v>2</v>
-      </c>
-      <c r="I22" s="27">
+      <c r="G22" s="37">
+        <v>8</v>
+      </c>
+      <c r="H22" s="37">
+        <v>2</v>
+      </c>
+      <c r="I22" s="38">
         <v>9</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="L22" s="75">
+        <v>45</v>
+      </c>
+      <c r="L22" s="61">
         <v>4</v>
       </c>
-      <c r="M22" s="77">
-        <v>8</v>
-      </c>
-      <c r="N22" s="77">
-        <v>1</v>
-      </c>
-      <c r="O22" s="73">
-        <v>5</v>
-      </c>
-      <c r="P22" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="78">
+      <c r="M22" s="63">
+        <v>8</v>
+      </c>
+      <c r="N22" s="63">
+        <v>1</v>
+      </c>
+      <c r="O22" s="59">
+        <v>5</v>
+      </c>
+      <c r="P22" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="64">
         <v>6</v>
       </c>
-      <c r="R22" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="S22" s="77">
+      <c r="R22" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="S22" s="63">
         <v>3</v>
       </c>
-      <c r="T22" s="76">
-        <v>2</v>
-      </c>
-      <c r="U22" s="67">
+      <c r="T22" s="62">
+        <v>2</v>
+      </c>
+      <c r="U22" s="53">
         <v>25</v>
       </c>
-      <c r="V22" s="52"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="19">
-        <v>2</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>8</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="34"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="33">
+        <v>9</v>
+      </c>
+      <c r="B23" s="34">
+        <v>6</v>
+      </c>
+      <c r="C23" s="34">
+        <v>5</v>
+      </c>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
+      <c r="E23" s="34">
+        <v>7</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1</v>
+      </c>
+      <c r="H23" s="34">
+        <v>8</v>
+      </c>
+      <c r="I23" s="35">
         <v>4</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="L23" s="67">
+        <v>45</v>
+      </c>
+      <c r="L23" s="53">
         <v>7</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="53">
         <v>20</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="53">
         <v>7</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="53">
         <v>13</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="53">
         <v>20</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="53">
         <v>45</v>
       </c>
-      <c r="R23" s="67">
+      <c r="R23" s="53">
         <v>13</v>
       </c>
-      <c r="S23" s="67">
+      <c r="S23" s="53">
         <v>14</v>
       </c>
-      <c r="T23" s="67">
+      <c r="T23" s="53">
         <v>45</v>
       </c>
-      <c r="U23" s="67"/>
-      <c r="V23" s="52"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19">
-        <v>8</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="34"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="33">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34">
+        <v>7</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2</v>
+      </c>
+      <c r="D24" s="33">
+        <v>4</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35">
+        <v>8</v>
+      </c>
+      <c r="G24" s="34">
+        <v>6</v>
+      </c>
+      <c r="H24" s="34">
+        <v>9</v>
+      </c>
+      <c r="I24" s="35">
         <v>5</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-    </row>
-    <row r="25" spans="1:22" ht="14" thickBot="1">
-      <c r="A25" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="23">
-        <v>8</v>
-      </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="D25" s="32">
-        <v>5</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="23">
+        <v>45</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+    </row>
+    <row r="25" spans="1:24" ht="14" thickBot="1">
+      <c r="A25" s="36">
+        <v>4</v>
+      </c>
+      <c r="B25" s="37">
+        <v>8</v>
+      </c>
+      <c r="C25" s="37">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
+        <v>5</v>
+      </c>
+      <c r="E25" s="37">
+        <v>9</v>
+      </c>
+      <c r="F25" s="38">
+        <v>6</v>
+      </c>
+      <c r="G25" s="37">
+        <v>7</v>
+      </c>
+      <c r="H25" s="37">
         <v>3</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="38">
         <v>2</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-    </row>
-    <row r="26" spans="1:22">
+        <v>45</v>
+      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <f>SUM(A17:A25)</f>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="3">SUM(B17:B25)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26" si="4">SUM(C17:C25)</f>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26" si="5">SUM(D17:D25)</f>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26" si="6">SUM(E17:E25)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <f t="shared" ref="F26" si="7">SUM(F17:F25)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="8">SUM(G17:G25)</f>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26" si="9">SUM(H17:H25)</f>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26" si="10">SUM(I17:I25)</f>
         <v>45</v>
       </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-    </row>
-    <row r="28" spans="1:22" ht="14" thickBot="1">
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="46">
-        <v>8</v>
-      </c>
-      <c r="F29" s="41">
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+    </row>
+    <row r="28" spans="1:24" ht="14" thickBot="1">
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="24">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19">
         <v>7</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="41">
+      <c r="G29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="19">
         <v>1</v>
       </c>
       <c r="J29">
         <f>SUM(A29:I29)</f>
         <v>16</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="34">
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="12">
         <v>9</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="42">
-        <v>1</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="42">
+      <c r="C30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="20">
         <v>8</v>
       </c>
       <c r="J30">
         <f t="shared" ref="J30:J37" si="11">SUM(A30:I30)</f>
         <v>18</v>
       </c>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-    </row>
-    <row r="31" spans="1:22" ht="14" thickBot="1">
-      <c r="A31" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="43">
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+    </row>
+    <row r="31" spans="1:24" ht="14" thickBot="1">
+      <c r="A31" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="21">
         <v>4</v>
       </c>
-      <c r="F31" s="42">
-        <v>5</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="42">
+      <c r="F31" s="20">
+        <v>5</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="20">
         <v>6</v>
       </c>
       <c r="J31">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="46">
-        <v>2</v>
-      </c>
-      <c r="F32" s="47">
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="25">
         <v>4</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="41">
+      <c r="G32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="19">
         <v>3</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="48">
-        <v>2</v>
-      </c>
-      <c r="B33" s="43">
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="26">
+        <v>2</v>
+      </c>
+      <c r="B33" s="21">
         <v>3</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="21">
         <v>6</v>
       </c>
-      <c r="D33" s="48">
-        <v>8</v>
-      </c>
-      <c r="E33" s="43">
-        <v>5</v>
-      </c>
-      <c r="F33" s="42">
+      <c r="D33" s="26">
+        <v>8</v>
+      </c>
+      <c r="E33" s="21">
+        <v>5</v>
+      </c>
+      <c r="F33" s="20">
         <v>9</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="21">
         <v>4</v>
       </c>
-      <c r="H33" s="43">
-        <v>1</v>
-      </c>
-      <c r="I33" s="42">
+      <c r="H33" s="21">
+        <v>1</v>
+      </c>
+      <c r="I33" s="20">
         <v>7</v>
       </c>
       <c r="J33">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-    </row>
-    <row r="34" spans="1:22" ht="14" thickBot="1">
-      <c r="A34" s="36">
-        <v>5</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="39">
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+    </row>
+    <row r="34" spans="1:24" ht="14" thickBot="1">
+      <c r="A34" s="14">
+        <v>5</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="17">
         <v>3</v>
       </c>
-      <c r="G34" s="40">
-        <v>8</v>
-      </c>
-      <c r="H34" s="40">
-        <v>2</v>
-      </c>
-      <c r="I34" s="39">
+      <c r="G34" s="18">
+        <v>8</v>
+      </c>
+      <c r="H34" s="18">
+        <v>2</v>
+      </c>
+      <c r="I34" s="17">
         <v>9</v>
       </c>
       <c r="J34">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="42">
-        <v>2</v>
-      </c>
-      <c r="G35" s="43">
-        <v>1</v>
-      </c>
-      <c r="H35" s="43">
-        <v>8</v>
-      </c>
-      <c r="I35" s="42">
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="20">
+        <v>2</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21">
+        <v>8</v>
+      </c>
+      <c r="I35" s="20">
         <v>4</v>
       </c>
       <c r="J35">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="43">
-        <v>1</v>
-      </c>
-      <c r="F36" s="42">
-        <v>8</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="42">
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
+        <v>8</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="20">
         <v>5</v>
       </c>
       <c r="J36">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-    </row>
-    <row r="37" spans="1:22" ht="14" thickBot="1">
-      <c r="A37" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="40">
-        <v>8</v>
-      </c>
-      <c r="C37" s="40">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36">
-        <v>5</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="50">
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+    </row>
+    <row r="37" spans="1:24" ht="14" thickBot="1">
+      <c r="A37" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="18">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="28">
         <v>6</v>
       </c>
-      <c r="G37" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="40">
+      <c r="G37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="18">
         <v>3</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="17">
         <v>2</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <f>SUM(A29:A37)</f>
         <v>7</v>
@@ -2809,147 +3301,169 @@
         <f t="shared" ref="I38" si="19">SUM(I29:I37)</f>
         <v>45</v>
       </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2985,4 +3499,411 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>